--- a/static/results/Ammessi_OII_2024.xlsx
+++ b/static/results/Ammessi_OII_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="416">
   <si>
     <t xml:space="preserve">Sede 
 Territoriale</t>
@@ -985,166 +985,169 @@
     <t xml:space="preserve">LEPC03000R</t>
   </si>
   <si>
+    <t xml:space="preserve">LC Palmieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degli Atti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEPS07000A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS Giulietta Banzi Bazoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSPS040001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS Giovanni Spano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sassari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardegna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giulio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRPS150001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floridia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTF010003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITI T. Buzzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toscana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niccolò</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baronti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPS01000P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS Statale "A. Di Savoia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistoia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Cristian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alazaroae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITF020002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITI Tito Sarrocchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iannaccone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIPS02000A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS U. Dini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNPS01000V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS Galileo Galilei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trentino-Alto Adige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattarei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNIS00600T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIS Bertrand Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNPC02000A</t>
+  </si>
+  <si>
     <t xml:space="preserve">LC Antonio Rosmini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degli Atti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEPS07000A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS Giulietta Banzi Bazoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSPS040001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS Giovanni Spano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sassari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sardegna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giulio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Areste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPS150001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floridia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sicilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POTF010003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITI T. Buzzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toscana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niccolò</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baronti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPS01000P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS Statale "A. Di Savoia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pistoia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Cristian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alazaroae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITF020002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITI Tito Sarrocchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iannaccone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIPS02000A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS U. Dini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNPS01000V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS Galileo Galilei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trentino-Alto Adige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mattarei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNIS00600T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IIS Bertrand Russell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNPC02000A</t>
   </si>
   <si>
     <t xml:space="preserve">Rovereto</t>
@@ -1853,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4904,10 +4907,10 @@
         <v>373</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>366</v>
@@ -4924,7 +4927,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D88" s="20" t="n">
         <v>39737</v>
@@ -4956,10 +4959,10 @@
         <v>361</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D89" s="24" t="n">
         <v>39198</v>
@@ -4988,13 +4991,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D90" s="11" t="n">
         <v>38719</v>
@@ -5006,13 +5009,13 @@
         <v>5</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>366</v>
@@ -5023,13 +5026,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D91" s="11" t="n">
         <v>39197</v>
@@ -5041,16 +5044,16 @@
         <v>4</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>19</v>
@@ -5058,13 +5061,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D92" s="16" t="n">
         <v>38836</v>
@@ -5076,16 +5079,16 @@
         <v>5</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H92" s="36" t="s">
         <v>364</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K92" s="18" t="s">
         <v>31</v>
@@ -5093,13 +5096,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D93" s="20" t="n">
         <v>39610</v>
@@ -5111,16 +5114,16 @@
         <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K93" s="21" t="s">
         <v>80</v>
@@ -5128,16 +5131,16 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>14</v>
@@ -5146,16 +5149,16 @@
         <v>5</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H94" s="23" t="s">
         <v>364</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J94" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>86</v>
@@ -5163,13 +5166,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>269</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D95" s="16" t="n">
         <v>39017</v>
@@ -5181,16 +5184,16 @@
         <v>5</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K95" s="18" t="s">
         <v>19</v>
@@ -5198,13 +5201,13 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D96" s="24" t="n">
         <v>39710</v>
@@ -5216,16 +5219,16 @@
         <v>3</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J96" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K96" s="27" t="s">
         <v>80</v>
@@ -5233,13 +5236,13 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D97" s="11" t="n">
         <v>39503</v>
@@ -5251,16 +5254,16 @@
         <v>3</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>167</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K97" s="13" t="s">
         <v>80</v>
